--- a/Document/MeetingMinute/21052015.xlsx
+++ b/Document/MeetingMinute/21052015.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>STT</t>
   </si>
@@ -47,13 +47,6 @@
   </si>
   <si>
     <t>usecase</t>
-  </si>
-  <si>
-    <t>view tasks &amp; view task details &amp; filter
-bỏ task review, đưa vào view task detail
-tách manage task ra
-Change info thành edit profile
-bỏ 2 cấp</t>
   </si>
   <si>
     <t>trong lúc tạo project nhớ chọn "need skill"</t>
@@ -81,6 +74,44 @@
   </si>
   <si>
     <t>discustion</t>
+  </si>
+  <si>
+    <t>Đã thêm bảng skillOfProject để giải quyết skill need</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
+  <si>
+    <t>đã thống nhất là document review trong task review</t>
+  </si>
+  <si>
+    <t xml:space="preserve">có 3 cấp: search(theo điều kiện theo tiêu chí)
+view task(list all)
+view details(chi tiết) 
+đã đổi thanh edit profile
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">view tasks &amp; view task details &amp; filter
+bỏ task review, đưa vào view task detail
+tách manage task ra
+Change info thành edit profile
+</t>
+  </si>
+  <si>
+    <t>đã tách ra thành 3 thực thể có quan hệ kế thừa từ emp</t>
+  </si>
+  <si>
+    <t>đã bỏ bảng admin
+thêm bảng role
+đã thêm
+ban đầu không ccó position
+approve đổi thanh close task.
+Đã có bảng taskChangeLog lưu lại thay đổi.
+Đã có bảng assessment này để lưu đánh giá.</t>
+  </si>
+  <si>
+    <t>đổi thành forum.</t>
   </si>
 </sst>
 </file>
@@ -145,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -153,6 +184,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -214,7 +248,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -249,7 +283,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -461,7 +495,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -494,9 +528,11 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
@@ -506,9 +542,11 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -520,7 +558,9 @@
       <c r="C4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -532,7 +572,9 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -542,43 +584,51 @@
         <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
